--- a/biology/Médecine/Nerf_cutané_latéral_de_la_cuisse/Nerf_cutané_latéral_de_la_cuisse.xlsx
+++ b/biology/Médecine/Nerf_cutané_latéral_de_la_cuisse/Nerf_cutané_latéral_de_la_cuisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de la cuisse (ou nerf fémoro-cutané) est un nerf sensitif branche collatérale de la partie postérieure du plexus lombal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de la cuisse nait des divisions postérieures des rameaux antérieurs des deuxième et troisième nerfs lombaires.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané latéral de la cuisse passe derrière le muscle grand psoas et sort au milieu de la partie latérale de ce muscle. Il traverse ventralement en oblique le muscle iliaque en se dirigeant vers l'épine iliaque antéro-supérieure. Il passe ensuite derrière ou à travers le ligament inguinal à environ 1,5 cm en caudal et médial de l'épine iliaque antéro-supérieure et sur le muscle sartorius où il se divise en une branche antérieure et une branche postérieure.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La branche antérieure devient superficielle à environ 10 cm au-dessous du ligament inguinal, et se divise en rameaux qui sont distribués à la peau des parties antérieure et latérale de la cuisse, jusqu'au genou. Les extrémités de ce nerf communiquent fréquemment avec les branches antérieures cutanées du nerf fémoral et avec la branche infrapatellaire du nerf saphène, formant avec eux un plexus.
 La branche postérieure perfore le fascia lata et se subdivise en filaments qui se dirigent en arrière vers les faces latérale et postérieure de la cuisse, innervant la peau au niveau du grand trochanter au milieu de la cuisse.</t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +622,14 @@
           <t>Variation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf cutané latéral de la cuisse peut avoir plusieurs branches[1].  
-Sa position par rapport à l'épine iliaque antéro-supérieure peut être très variable[2]. 
-Il peut traverser partiellement le muscle sartorius plutôt que de rester sur sa surface[1]. 
-Il peut être absent et l'innervation sensorielle remplacée par des branches du nerf fémoral et du nerf ilio-inguinal[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf cutané latéral de la cuisse peut avoir plusieurs branches.  
+Sa position par rapport à l'épine iliaque antéro-supérieure peut être très variable. 
+Il peut traverser partiellement le muscle sartorius plutôt que de rester sur sa surface. 
+Il peut être absent et l'innervation sensorielle remplacée par des branches du nerf fémoral et du nerf ilio-inguinal.
 </t>
         </is>
       </c>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_lat%C3%A9ral_de_la_cuisse</t>
+          <t>Nerf_cutané_latéral_de_la_cuisse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf cutané latéral de la cuisse peut être comprimé près de l'épine iliaque antéro-supérieure et du ligament inguinal entraînant une méralgie paresthésique (syndrome de Bernhardt-Roth )[3],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf cutané latéral de la cuisse peut être comprimé près de l'épine iliaque antéro-supérieure et du ligament inguinal entraînant une méralgie paresthésique (syndrome de Bernhardt-Roth ),.
 </t>
         </is>
       </c>
